--- a/data/trans_orig/P1499-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1499-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF8918A-D924-4F8A-BFD6-53F3AF9A254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF11968D-9AB4-454E-B834-B89180B6FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AFFE818-932C-4261-A58F-B45508DF66F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51EB1C03-340F-45F4-9AA1-D43287E62CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F3A41-DB9E-46C0-9BC9-B07B79414102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08DE88A-DCB9-4D4C-A0DE-752DBDFDAB90}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1499-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1499-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF11968D-9AB4-454E-B834-B89180B6FED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{150D86CA-3D45-4293-9C9E-65513C179C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51EB1C03-340F-45F4-9AA1-D43287E62CB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE45E972-2FEB-4BBB-B05A-8DB2D2C914D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08DE88A-DCB9-4D4C-A0DE-752DBDFDAB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C935DB-55FA-40FF-9CFB-0A980CB2D33A}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
